--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1022142.406187796</v>
+        <v>1054105.117991142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16618375.1158991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7164965.239467815</v>
+        <v>7200958.754190601</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>73.37556433102313</v>
       </c>
       <c r="D2" t="n">
-        <v>317.8227870144766</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>127.3620898877119</v>
       </c>
       <c r="X4" t="n">
-        <v>168.7111025816212</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559665</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>247.0276280162298</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>141.0670894717351</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.689577989049725</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>211.6411060281605</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>256.332437185327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>90.97964783088969</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>147.3525275309915</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>85.5532963163069</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>381.4061090983691</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.227720276594</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>50.30825486907156</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1819,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.72182167445</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>246.3549093206789</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.0870598415703</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2059,10 +2059,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555182</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2087,10 +2087,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
-        <v>155.5776225602618</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317936</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126089069</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.45405731752558</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>41.9406129737742</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2533,13 +2533,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7248168572579</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>140.4342819615955</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>31.24391673888151</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022897</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>79.58540461744444</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>24.34318456170499</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3424,10 +3424,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>86.48613679462103</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>86.20228614855911</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>144.4937753855486</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773008</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,10 +3961,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>81.01098805495087</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556927</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,7 +4037,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>216.0237438655875</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924865</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>900.2145368236282</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901424</v>
+        <v>826.0978051761301</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>794.2284243909787</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>764.494083589678</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>336.6266539988857</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>336.6266539988857</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>482.7511868950198</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1070.520367491031</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1659.172121393445</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2205.670907352039</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.757744978135</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.757744978135</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.757744978135</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2153.942694429572</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1734.800231008883</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1326.514107308536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.6682444333948</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>447.211783270037</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>352.1214944165903</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>258.001079743544</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>174.6172413597056</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>89.23215162588946</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>73.56017260255953</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>398.1184975687718</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>985.8876781647831</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1593.563482826571</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.736260920911</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1647.280823369294</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1517.102179699895</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.765632699864</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.648114761863</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>956.3253604950571</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>801.4579247339371</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.9721455131579</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>897.9925365190331</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>725.4308250022581</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>559.5528322037808</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.7948284545181</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>213.0877744162743</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>287.6962768024544</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>705.9061585704155</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1165.390025751328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1607.648828908973</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2027.318078134755</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2215.583603403093</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1969.704156981548</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1691.271156234653</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1691.271156234653</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1562.6225805905</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1317.230825923912</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>1089.81115523802</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>864.4976534877803</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>691.9359419710053</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>526.057949172528</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>356.2999454232652</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>179.5928913850214</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>864.4976534877803</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>864.4976534877803</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.4976534877803</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.7215407443859</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6194719682132</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>90.75009118306181</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176104</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>928.4913703274493</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>928.4913703274493</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>928.4913703274493</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1383.544071626546</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1838.596772925642</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925642</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242659</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.757520176486</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9020655875188</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>392.7596021668295</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.9807071888896</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232027</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>123.3516206232027</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>578.4043219222991</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651868</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1579.67511920309</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1579.67511920309</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1307.648714789381</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1307.648714789381</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111516</v>
@@ -5075,16 +5075,16 @@
         <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1033.649484784619</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>861.0877732678443</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>695.2097804693669</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>525.4517767201041</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>348.7447226818604</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>183.153447707688</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111516</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>1225.468103503606</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2472.724095295528</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2034.581622478951</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2492.071939528658</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3472.251606098964</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4300.561480932361</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556611</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490438</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901471</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480782</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780435</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,22 +5358,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1267.081141286983</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
         <v>1642.802960065584</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>998.0484328177142</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>825.4867213009393</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>659.6087285024621</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>489.8507247531993</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>313.1436707149555</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>147.5523957407831</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2286.856950165738</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1999.901442036169</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1727.87503762246</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1482.483282955873</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984729</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168153</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874949</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>837.3544329777442</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C19" t="n">
-        <v>837.3544329777442</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>837.3544329777446</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>667.596429228482</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>490.8893751902381</v>
       </c>
       <c r="G19" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5707,16 +5707,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177142</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847292</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397514</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3598.448757555621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3598.448757555621</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3598.448757555621</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1157.289801519718</v>
+        <v>790.3368563937679</v>
       </c>
       <c r="C22" t="n">
-        <v>984.728090002943</v>
+        <v>617.7751448769928</v>
       </c>
       <c r="D22" t="n">
-        <v>818.8500972044657</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>649.092093455203</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>472.3850394169592</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>306.7937644427869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>166.8915901331612</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285906</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.70947220561</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519718</v>
+        <v>982.1554751127514</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1083.7810821021</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>911.2193705853252</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>745.3413777868479</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>575.5833740375853</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>398.8763199993415</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>233.2850450251692</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.411126173567</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.019371506979</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.599700821087</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6227,10 +6227,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
         <v>3007.131363532227</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181458</v>
+        <v>444.5591692831959</v>
       </c>
       <c r="F28" t="n">
-        <v>496.414238779902</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785113</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292486</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449518</v>
+        <v>105.4320942910048</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="32">
@@ -6710,13 +6710,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937642</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769891</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D34" t="n">
-        <v>617.7751448769891</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E34" t="n">
-        <v>448.0171411277263</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F34" t="n">
-        <v>271.3100870894825</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856331</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008509</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.966900465231</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127512</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6944,16 +6944,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7072,16 +7072,16 @@
         <v>790.3368563937639</v>
       </c>
       <c r="C37" t="n">
-        <v>790.3368563937639</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D37" t="n">
-        <v>624.4588635952866</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>454.7008598460239</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>277.9938058077802</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
         <v>190.9207894961043</v>
@@ -7120,16 +7120,16 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
         <v>1454.966900465231</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957674</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805154</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312526</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930087</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7418,31 +7418,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
         <v>4187.4836598467</v>
@@ -7451,7 +7451,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136697</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751424</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876359</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354741</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066097</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745707</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955484</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.22078133891</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309252</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173584</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878956</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755408</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008513</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878943</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465235</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1373.137619601648</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832885</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.891488188285166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.706243026274</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>67.61299598960852</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>242.6260377377298</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564041</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8611,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>328.1045787301896</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.7912003740812</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5169886652536</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,7 +9167,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>527.9769957459444</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,7 +10367,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10592,19 +10592,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>267.5985112554909</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.94985625022233</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>50.14457787893076</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>88.19489769745766</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>185.195777656621</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.81337269022691</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>81.78272691405323</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>268.0111327346224</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>160.7958207444035</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>18.31929241554582</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>96.56253959275503</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>15.21302026266373</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.6516710866783</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>84.34995760698617</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048242</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>84.34995760698628</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.73307607587149</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.14686572942378</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>161.9268490649708</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>184.7831561774895</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.4233680290252</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>607019.101858945</v>
+        <v>615705.9188385765</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>607019.101858945</v>
+        <v>619490.6039166123</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>608831.9066408124</v>
+        <v>619490.6039166123</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607911.7004169498</v>
+        <v>633566.2688462042</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633566.268846204</v>
+        <v>633566.2688462038</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633566.268846204</v>
+        <v>633566.2688462038</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633566.268846204</v>
+        <v>607911.7004169498</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
         <v>361899.4409260257</v>
@@ -26326,13 +26326,13 @@
         <v>341228.6311308815</v>
       </c>
       <c r="G2" t="n">
-        <v>341228.6311308814</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="H2" t="n">
-        <v>341228.6311308815</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927128</v>
@@ -26341,19 +26341,19 @@
         <v>355628.8692927127</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="O2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927127</v>
+        <v>341228.6311308816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>198964.617281694</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23845.51249725102</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18633.22400329715</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>155339.6762503664</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18996.06533906484</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>169744.0293826752</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.592948386</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856654</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856653</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="G4" t="n">
-        <v>65247.19221856654</v>
+        <v>65247.19221856655</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="J4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="J4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="N4" t="n">
-        <v>68000.69828933278</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68000.69828933284</v>
-      </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>65247.19221856655</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69724.93957599746</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26482,10 +26482,10 @@
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39545.47411742207</v>
+        <v>-76534.14531434096</v>
       </c>
       <c r="C6" t="n">
-        <v>102645.8265422877</v>
+        <v>107204.7626143432</v>
       </c>
       <c r="D6" t="n">
-        <v>95792.77035716682</v>
+        <v>131050.2751115942</v>
       </c>
       <c r="E6" t="n">
-        <v>-21337.19711735949</v>
+        <v>40650.46286975635</v>
       </c>
       <c r="F6" t="n">
-        <v>202462.0966346674</v>
+        <v>202385.5380798707</v>
       </c>
       <c r="G6" t="n">
-        <v>202462.0966346674</v>
+        <v>202385.5380798708</v>
       </c>
       <c r="H6" t="n">
-        <v>202462.0966346675</v>
+        <v>191253.4840549077</v>
       </c>
       <c r="I6" t="n">
-        <v>191545.2167647479</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="J6" t="n">
-        <v>98895.46705259726</v>
+        <v>54547.03180783838</v>
       </c>
       <c r="K6" t="n">
-        <v>209909.9323975874</v>
+        <v>190890.6427191399</v>
       </c>
       <c r="L6" t="n">
-        <v>200962.3213090773</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="M6" t="n">
-        <v>23118.94578712014</v>
+        <v>74896.76344520145</v>
       </c>
       <c r="N6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="O6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582049</v>
       </c>
       <c r="P6" t="n">
-        <v>209909.9323975874</v>
+        <v>202385.5380798707</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>360.3854837573878</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>113.7278999628233</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27585,22 +27585,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>141.9440504818595</v>
       </c>
       <c r="X4" t="n">
-        <v>74.22673453830043</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732121</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>157.1756344471133</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.99333424003498</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>158.2457842353809</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.5621564351826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,22 +28062,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>19.31623355409874</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-3.975358782481645e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.601599019020796e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.827241666432938e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.547473508864641e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.891488188285166</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.706243026274</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>67.61299598960852</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>242.6260377377298</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564041</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>328.1045787301896</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.7912003740812</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.5169886652536</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,7 +35887,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,28 +36121,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>527.9769957459444</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36534,7 +36534,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.891691782153</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,7 +37087,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37312,19 +37312,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.4542274390853</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
